--- a/TMT Input Template.xlsx
+++ b/TMT Input Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bng\Documents\R Stuff\R Workspace\Volcano Plotter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bng\Documents\R Stuff\R Workspace\Proteomics Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,22 +65,22 @@
     <t>dmso3</t>
   </si>
   <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l3</t>
+    <t>100nM1</t>
+  </si>
+  <si>
+    <t>100nM2</t>
+  </si>
+  <si>
+    <t>100nM3</t>
+  </si>
+  <si>
+    <t>10uM1</t>
+  </si>
+  <si>
+    <t>10uM2</t>
+  </si>
+  <si>
+    <t>10uM3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
